--- a/OnlineVotingAndroid/Upload/Sample-Data.xlsx
+++ b/OnlineVotingAndroid/Upload/Sample-Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BECBDD-DAA6-454E-9C35-B924740D520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>First Name</t>
   </si>
@@ -130,16 +128,103 @@
   </si>
   <si>
     <t>Valera</t>
+  </si>
+  <si>
+    <t>2022-6532</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>2022-6533</t>
+  </si>
+  <si>
+    <t>2022-6534</t>
+  </si>
+  <si>
+    <t>2022-6535</t>
+  </si>
+  <si>
+    <t>2022-6536</t>
+  </si>
+  <si>
+    <t>2022-6537</t>
+  </si>
+  <si>
+    <t>2022-6538</t>
+  </si>
+  <si>
+    <t>2022-6539</t>
+  </si>
+  <si>
+    <t>2022-6540</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Cardo</t>
+  </si>
+  <si>
+    <t>Lud</t>
+  </si>
+  <si>
+    <t>jude</t>
+  </si>
+  <si>
+    <t>Marrie</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Nath</t>
+  </si>
+  <si>
+    <t>Biboy</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Nomi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,18 +558,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,14 +706,141 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OnlineVotingAndroid/Upload/Sample-Data.xlsx
+++ b/OnlineVotingAndroid/Upload/Sample-Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BECBDD-DAA6-454E-9C35-B924740D520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73200EE2-9DAB-40BB-A1CB-C1519B87B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>First Name</t>
   </si>
@@ -34,24 +34,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Year and section</t>
-  </si>
-  <si>
-    <t>1st Year - A</t>
-  </si>
-  <si>
-    <t>2nd Year - A</t>
-  </si>
-  <si>
-    <t>3rd Year - A</t>
-  </si>
-  <si>
-    <t>3rd Year - B</t>
-  </si>
-  <si>
-    <t>4th Year - B</t>
-  </si>
-  <si>
     <t>Student ID</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>Joy</t>
   </si>
   <si>
-    <t>1st year - A</t>
-  </si>
-  <si>
     <t>Ang</t>
   </si>
   <si>
@@ -128,103 +107,16 @@
   </si>
   <si>
     <t>Valera</t>
-  </si>
-  <si>
-    <t>2022-6532</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>2022-6533</t>
-  </si>
-  <si>
-    <t>2022-6534</t>
-  </si>
-  <si>
-    <t>2022-6535</t>
-  </si>
-  <si>
-    <t>2022-6536</t>
-  </si>
-  <si>
-    <t>2022-6537</t>
-  </si>
-  <si>
-    <t>2022-6538</t>
-  </si>
-  <si>
-    <t>2022-6539</t>
-  </si>
-  <si>
-    <t>2022-6540</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Cardo</t>
-  </si>
-  <si>
-    <t>Lud</t>
-  </si>
-  <si>
-    <t>jude</t>
-  </si>
-  <si>
-    <t>Marrie</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Nath</t>
-  </si>
-  <si>
-    <t>Biboy</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>Ace</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Hazard</t>
-  </si>
-  <si>
-    <t>Nomi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,9 +472,9 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -590,250 +482,96 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
